--- a/docs/Data Feed Specification.xlsx
+++ b/docs/Data Feed Specification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWProject\WH_Nhom9_DongHo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E822A1-9ACC-4A47-BAA9-A09F6F72A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB8D92-8990-4C7D-95B4-2FE1626973C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{751DF043-DEDB-4487-BBC2-F5CA996CB508}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>Field Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>product_id</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>ID sản phẩm (natural id)</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Ngày ghi nhận</t>
   </si>
   <si>
-    <t>19/11/2024  20:00:00</t>
-  </si>
-  <si>
     <t>PNJ</t>
   </si>
   <si>
@@ -217,6 +211,15 @@
   </si>
   <si>
     <t>12670000.0</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
   </si>
 </sst>
 </file>
@@ -280,15 +283,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -607,19 +610,20 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K27:K28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="114.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -627,431 +631,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7">
-        <v>42</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>59</v>
+      <c r="M13" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Data Feed Specification.xlsx
+++ b/docs/Data Feed Specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWProject\WH_Nhom9_DongHo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB8D92-8990-4C7D-95B4-2FE1626973C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C499C64-BE4F-4194-94D3-E620C90CE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{751DF043-DEDB-4487-BBC2-F5CA996CB508}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -292,6 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -610,7 +618,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,8 +706,8 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -712,8 +720,8 @@
       <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>48</v>
+      <c r="M3" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -728,8 +736,8 @@
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>9</v>
@@ -742,8 +750,8 @@
       <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>49</v>
+      <c r="M4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
